--- a/exec/immersedIons/Electrolyte_Data.xlsx
+++ b/exec/immersedIons/Electrolyte_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
   <si>
     <t xml:space="preserve">Chemical</t>
   </si>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">Bare conductivity (w/o DHO corrections)</t>
   </si>
   <si>
-    <t xml:space="preserve">(don’t touch this)</t>
+    <t xml:space="preserve">Wet Percentage (EP Correction)</t>
   </si>
   <si>
     <r>
@@ -310,7 +310,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ion radius in DH, </t>
+      <t xml:space="preserve">Ion size in DH, </t>
     </r>
     <r>
       <rPr>
@@ -359,7 +359,19 @@
     <t xml:space="preserve">Percent change from c=0 value</t>
   </si>
   <si>
+    <t xml:space="preserve">Wien Effect Corrections to DHO Corrections</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total conductivity (with ion size correction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrophoresis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaxation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set these to 1.0 for no Wien correction (weak E-field)</t>
   </si>
   <si>
     <t xml:space="preserve">Slit channel parameters</t>
@@ -561,7 +573,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,11 +626,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,41 +775,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="7.83163265306122"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-    </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,8 +829,6 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,30 +1007,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="0"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="0"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="0"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1121,17 +1111,11 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1139,6 @@
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="0"/>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1213,7 @@
       <c r="D19" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>1.32</v>
       </c>
       <c r="F19" s="5" t="n">
@@ -1268,15 +1251,7 @@
         <v>0.0058</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
       <c r="G22" s="9" t="s">
         <v>50</v>
       </c>
@@ -1290,16 +1265,13 @@
         <v>6.0221409E+023</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-    </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1316,7 +1288,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1329,25 +1301,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:V49"/>
+  <dimension ref="A2:V50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1350,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="12" t="n">
-        <v>1.38E-016</v>
+        <v>1.38064852E-016</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1383,7 +1358,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13" t="n">
-        <v>78.3</v>
+        <v>78.264</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -1406,7 +1381,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="15" t="n">
         <v>295</v>
       </c>
       <c r="G4" s="1"/>
@@ -1422,22 +1397,22 @@
         <v>1.6E-019</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="17" t="n">
         <f aca="false">($B$5)^2/(4*3.14*$B$4*$F$3*$B$8)*$B$7</f>
-        <v>0.7225105463269</v>
+        <v>0.7225033531928</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="n">
+      <c r="I5" s="16"/>
+      <c r="J5" s="17" t="n">
         <f aca="false">1/SQRT(8*3.14*($F$5/$B$7) * $B$2*$J$3*(1/1000) )*$B$7</f>
-        <v>0.956516862943982</v>
+        <v>0.956521624400734</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,47 +1423,47 @@
         <v>10000000</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="18" t="n">
         <v>10000000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="20" t="n">
         <f aca="false">B3*F4</f>
-        <v>4.071E-014</v>
-      </c>
-      <c r="D8" s="20" t="s">
+        <v>4.072913134E-014</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="22" t="s">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="n">
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="n">
         <f aca="false">$B$2*$J$3/(1000*1E+021)</f>
         <v>0.060221409</v>
       </c>
@@ -1502,16 +1477,16 @@
         <v>1.33E-005</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="25"/>
+      <c r="D10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="25" t="n">
+      <c r="E10" s="23"/>
+      <c r="F10" s="26" t="n">
         <f aca="false">F9*1E+021</f>
         <v>6.0221409E+019</v>
       </c>
@@ -1530,64 +1505,64 @@
         <v>50</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="23" t="n">
+      <c r="E11" s="16"/>
+      <c r="F11" s="24" t="n">
         <f aca="false">F9*($J$5)^3</f>
-        <v>0.0527022073082313</v>
-      </c>
-      <c r="H11" s="22" t="s">
+        <v>0.0527029943529967</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="23" t="n">
+      <c r="L11" s="24" t="n">
         <f aca="false">$B$3*$F$4/(6*3.14*$L$9*$L$10) * $B$7</f>
-        <v>0.184686156023736</v>
-      </c>
-      <c r="M11" s="23" t="n">
+        <v>0.184772947810623</v>
+      </c>
+      <c r="M11" s="24" t="n">
         <f aca="false">$B$3*$F$4/(6*3.14*$M$9*$M$10) * $B$7</f>
-        <v>0.162468272592309</v>
+        <v>0.162544623261977</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="17" t="n">
         <f aca="false">1/F9</f>
         <v>16.6053902857039</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="24" t="n">
         <f aca="false">1/F11</f>
-        <v>18.9745373310733</v>
+        <v>18.9742539731642</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O15" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1595,526 +1570,597 @@
       <c r="D16" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="17" t="n">
         <f aca="false">J5</f>
-        <v>0.956516862943982</v>
-      </c>
-      <c r="H16" s="22" t="s">
+        <v>0.956521624400734</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="19" t="n">
+      <c r="L16" s="20" t="n">
         <f aca="false">F10*B5^2*L9/B8</f>
-        <v>4.43073358478998E-010</v>
-      </c>
-      <c r="M16" s="19" t="n">
+        <v>4.42865237490724E-010</v>
+      </c>
+      <c r="M16" s="20" t="n">
         <f aca="false">F10*B5^2*M9/B8</f>
-        <v>5.03664586988946E-010</v>
-      </c>
-      <c r="N16" s="19" t="n">
+        <v>5.03428005010823E-010</v>
+      </c>
+      <c r="N16" s="20" t="n">
         <f aca="false">L16+M16</f>
-        <v>9.46737945467944E-010</v>
+        <v>9.46293242501548E-010</v>
       </c>
       <c r="O16" s="5" t="n">
         <f aca="false">N16*1000*$B$6/$J$3</f>
-        <v>94.6737945467944</v>
+        <v>94.6293242501548</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="U16" s="26" t="n">
+      <c r="U16" s="27" t="n">
         <f aca="false">$L$16/$N$16</f>
         <v>0.468</v>
       </c>
-      <c r="V16" s="26" t="n">
+      <c r="V16" s="27" t="n">
         <f aca="false">$M$16/$N$16</f>
         <v>0.532</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="B17" s="25" t="n">
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="24" t="n">
+      <c r="F17" s="25" t="n">
         <v>0.4</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="19" t="n">
-        <f aca="false">-F10*B5*B5/(6*3.14*L10*J5/$B$7)</f>
-        <v>-8.55494749587129E-011</v>
-      </c>
-      <c r="M17" s="19" t="n">
-        <f aca="false">-F10*B5*B5/(6*3.14*M10*J5/$B$7)</f>
-        <v>-8.55494749587129E-011</v>
+      <c r="L17" s="20" t="n">
+        <f aca="false">-F10*B5*B5/(6*3.14*L10*J5/$B$7) * F22 * B17</f>
+        <v>-8.55490491030764E-011</v>
+      </c>
+      <c r="M17" s="20" t="n">
+        <f aca="false">-F10*B5*B5/(6*3.14*M10*J5/$B$7) * F22 * B17</f>
+        <v>-8.55490491030764E-011</v>
+      </c>
+      <c r="N17" s="20" t="n">
+        <f aca="false">L17+M17</f>
+        <v>-1.71098098206153E-010</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <f aca="false">N17*1000*$B$6/$J$3</f>
+        <v>-17.1098098206153</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">N17*F18</f>
+        <v>-1.20646090621906E-010</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="26" t="n">
+      <c r="U17" s="27" t="n">
         <f aca="false">$L$19/$N$19</f>
-        <v>0.460242788457359</v>
-      </c>
-      <c r="V17" s="26" t="n">
+        <v>0.460238318276375</v>
+      </c>
+      <c r="V17" s="27" t="n">
         <f aca="false">$M$19/$N$19</f>
-        <v>0.539757211542641</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.539761681723625</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="27" t="n">
+      <c r="F18" s="28" t="n">
         <f aca="false">1/(1+F17/F16)</f>
-        <v>0.705127145170979</v>
-      </c>
-      <c r="H18" s="22" t="s">
+        <v>0.705128180189013</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="19" t="n">
-        <f aca="false">-L16*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(J5/$B$7))</f>
-        <v>-3.26770186209642E-011</v>
-      </c>
-      <c r="M18" s="19" t="n">
-        <f aca="false">-M16*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(J5/$B$7))</f>
-        <v>-3.71456707400704E-011</v>
+      <c r="L18" s="20" t="n">
+        <f aca="false">-L16*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(J5/$B$7)) * F23</f>
+        <v>-3.26611817738231E-011</v>
+      </c>
+      <c r="M18" s="20" t="n">
+        <f aca="false">-M16*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(J5/$B$7)) * F23</f>
+        <v>-3.71276681702433E-011</v>
+      </c>
+      <c r="N18" s="20" t="n">
+        <f aca="false">L18+M18</f>
+        <v>-6.97888499440664E-011</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <f aca="false">N18*1000*$B$6/$J$3</f>
+        <v>-6.97888499440664</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">N18*F18</f>
+        <v>-4.92100847585437E-011</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="U18" s="26" t="n">
+      <c r="U18" s="27" t="n">
         <f aca="false">$L$21/$N$21</f>
-        <v>0.463030377946932</v>
-      </c>
-      <c r="V18" s="26" t="n">
+        <v>0.463027704029876</v>
+      </c>
+      <c r="V18" s="27" t="n">
         <f aca="false">$M$21/$N$21</f>
-        <v>0.536969622053068</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.536972295970124</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="19" t="n">
+      <c r="L19" s="20" t="n">
         <f aca="false">L16+L17+L18</f>
-        <v>3.24846864899321E-010</v>
-      </c>
-      <c r="M19" s="19" t="n">
+        <v>3.24655006613825E-010</v>
+      </c>
+      <c r="M19" s="20" t="n">
         <f aca="false">M16+M17+M18</f>
-        <v>3.80969441290163E-010</v>
-      </c>
-      <c r="N19" s="19" t="n">
+        <v>3.80751287737504E-010</v>
+      </c>
+      <c r="N19" s="20" t="n">
         <f aca="false">L19+M19</f>
-        <v>7.05816306189484E-010</v>
+        <v>7.05406294351329E-010</v>
       </c>
       <c r="O19" s="5" t="n">
         <f aca="false">N19*1000*$B$6/$J$3</f>
-        <v>70.5816306189484</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="22" t="s">
+        <v>70.5406294351328</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">P18+P17</f>
+        <v>-1.69856175380449E-010</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="28" t="n">
+      <c r="L20" s="29" t="n">
         <f aca="false">L19/L16 - 1</f>
-        <v>-0.266832774567016</v>
-      </c>
-      <c r="M20" s="28" t="n">
+        <v>-0.266921448941621</v>
+      </c>
+      <c r="M20" s="29" t="n">
         <f aca="false">M19/M16 - 1</f>
-        <v>-0.243604868931307</v>
-      </c>
-      <c r="N20" s="28" t="n">
+        <v>-0.243682743217041</v>
+      </c>
+      <c r="N20" s="29" t="n">
         <f aca="false">N19/N16 - 1</f>
-        <v>-0.254475528768819</v>
-      </c>
-      <c r="O20" s="28" t="n">
+        <v>-0.254558457496145</v>
+      </c>
+      <c r="O20" s="29" t="n">
         <f aca="false">O19/O16 - 1</f>
-        <v>-0.254475528768819</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="22" t="s">
+        <v>-0.254558457496145</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">N16+P19</f>
+        <v>7.76437067121098E-010</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="19" t="n">
+      <c r="H21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="20" t="n">
         <f aca="false">L16+F18*(L17+L18)</f>
-        <v>3.59708648577585E-010</v>
-      </c>
-      <c r="M21" s="19" t="n">
+        <v>3.59511872512773E-010</v>
+      </c>
+      <c r="M21" s="20" t="n">
         <f aca="false">M16+F18*(M17+M18)</f>
-        <v>4.17148909176026E-010</v>
-      </c>
-      <c r="N21" s="19" t="n">
+        <v>4.16925194608325E-010</v>
+      </c>
+      <c r="N21" s="20" t="n">
         <f aca="false">L21+M21</f>
-        <v>7.76857557753611E-010</v>
+        <v>7.76437067121098E-010</v>
       </c>
       <c r="O21" s="5" t="n">
         <f aca="false">N21*1000*$B$6/$J$3</f>
-        <v>77.6857557753611</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="22" t="s">
+        <v>77.6437067121098</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="L22" s="28" t="n">
+      <c r="L22" s="29" t="n">
         <f aca="false">L21/L16 - 1</f>
-        <v>-0.188151032568491</v>
-      </c>
-      <c r="M22" s="28" t="n">
+        <v>-0.18821383554562</v>
+      </c>
+      <c r="M22" s="29" t="n">
         <f aca="false">M21/M16 - 1</f>
-        <v>-0.171772405779283</v>
-      </c>
-      <c r="N22" s="28" t="n">
+        <v>-0.171827569268099</v>
+      </c>
+      <c r="N22" s="29" t="n">
         <f aca="false">N21/N16 - 1</f>
-        <v>-0.179437603116632</v>
-      </c>
-      <c r="O22" s="28" t="n">
+        <v>-0.179496341885979</v>
+      </c>
+      <c r="O22" s="29" t="n">
         <f aca="false">O21/O16 - 1</f>
-        <v>-0.179437603116633</v>
+        <v>-0.179496341885979</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">P17/N16</f>
+        <v>-0.127493344772256</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">P18/N16</f>
+        <v>-0.0520029971137231</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" s="20" t="s">
+      <c r="P25" s="0" t="n">
+        <f aca="false">P23+P24</f>
+        <v>-0.179496341885979</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N26" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O26" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="Q25" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>2E-006</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" s="29" t="n">
-        <f aca="false">SQRT( F10^2 + ( F26/(B5*(F27/B7)) )^2 ) - (F26/( B5*(F27/B7)) )</f>
-        <v>5.84621643280219E+019</v>
-      </c>
-      <c r="M26" s="29" t="n">
-        <f aca="false">SQRT( F10^2 + ( F26/(B5*(F27/B7)) )^2 ) + (F26/( B5*(F27/B7)) )</f>
-        <v>6.20335928994504E+019</v>
-      </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="Q26" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="U26" s="26" t="n">
-        <f aca="false">$L$27/$N$27</f>
-        <v>0.453268917874318</v>
-      </c>
-      <c r="V26" s="26" t="n">
-        <f aca="false">$M$27/$N$27</f>
-        <v>0.546731082125682</v>
+      <c r="Q26" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="24" t="n">
+        <v>110</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>2E-006</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="30" t="n">
+        <f aca="false">SQRT( F10^2 + ( F27/(B5*(F28/B7)) )^2 ) - (F27/( B5*(F28/B7)) )</f>
+        <v>5.84621643280219E+019</v>
+      </c>
+      <c r="M27" s="30" t="n">
+        <f aca="false">SQRT( F10^2 + ( F27/(B5*(F28/B7)) )^2 ) + (F27/( B5*(F28/B7)) )</f>
+        <v>6.20335928994504E+019</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="Q27" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="U27" s="27" t="n">
+        <f aca="false">$L$28/$N$28</f>
+        <v>0.453268917874318</v>
+      </c>
+      <c r="V27" s="27" t="n">
+        <f aca="false">$M$28/$N$28</f>
+        <v>0.546731082125682</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="19" t="n">
-        <f aca="false">L26*$B$5^2*L9/$B$8</f>
-        <v>4.30129881098725E-010</v>
-      </c>
-      <c r="M27" s="19" t="n">
-        <f aca="false">M26*$B$5^2*M9/$B$8</f>
-        <v>5.18820872277202E-010</v>
-      </c>
-      <c r="N27" s="19" t="n">
-        <f aca="false">L27+M27</f>
-        <v>9.48950753375927E-010</v>
-      </c>
-      <c r="O27" s="5" t="n">
-        <f aca="false">N27*1000*$B$6/$J$3</f>
-        <v>94.8950753375927</v>
-      </c>
-      <c r="Q27" s="22" t="s">
+      <c r="H28" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="20" t="n">
+        <f aca="false">L27*$B$5^2*L9/$B$8</f>
+        <v>4.29927839937308E-010</v>
+      </c>
+      <c r="M28" s="20" t="n">
+        <f aca="false">M27*$B$5^2*M9/$B$8</f>
+        <v>5.18577171069244E-010</v>
+      </c>
+      <c r="N28" s="20" t="n">
+        <f aca="false">L28+M28</f>
+        <v>9.48505011006552E-010</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <f aca="false">N28*1000*$B$6/$J$3</f>
+        <v>94.8505011006552</v>
+      </c>
+      <c r="Q28" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="U27" s="26" t="n">
-        <f aca="false">$L$30/$N$30</f>
-        <v>0.4455491096292</v>
-      </c>
-      <c r="V27" s="26" t="n">
-        <f aca="false">$M$30/$N$30</f>
-        <v>0.5544508903708</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <f aca="false">1/SQRT(4*3.14*($F$5/$B$7) * (L26+M26) )*$B$7</f>
-        <v>0.956306719334011</v>
-      </c>
-      <c r="H28" s="22" t="s">
+      <c r="U28" s="27" t="n">
+        <f aca="false">$L$31/$N$31</f>
+        <v>0.445544662791725</v>
+      </c>
+      <c r="V28" s="27" t="n">
+        <f aca="false">$M$31/$N$31</f>
+        <v>0.554455337208275</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <f aca="false">1/SQRT(4*3.14*($F$5/$B$7) * (L27+M27) )*$B$7</f>
+        <v>0.956311479744687</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="19" t="n">
-        <f aca="false">-L26*B5*B5/(6*3.14*L10*F28/$B$7)</f>
-        <v>-8.30685727968039E-011</v>
-      </c>
-      <c r="M28" s="19" t="n">
-        <f aca="false">-M26*B5*B5/(6*3.14*L10*F28/$B$7)</f>
-        <v>-8.81431963192878E-011</v>
-      </c>
-      <c r="Q28" s="22" t="s">
+      <c r="L29" s="20" t="n">
+        <f aca="false">-L27*B5*B5/(6*3.14*L10*F29/$B$7) * F22</f>
+        <v>-8.30681592908185E-011</v>
+      </c>
+      <c r="M29" s="20" t="n">
+        <f aca="false">-M27*B5*B5/(6*3.14*L10*F29/$B$7) * F22</f>
+        <v>-8.8142757552399E-011</v>
+      </c>
+      <c r="Q29" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="U28" s="26" t="n">
-        <f aca="false">$L$31/$N$31</f>
-        <v>0.448322575667894</v>
-      </c>
-      <c r="V28" s="26" t="n">
-        <f aca="false">$M$31/$N$31</f>
-        <v>0.551677424332106</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="22" t="s">
+      <c r="U29" s="27" t="n">
+        <f aca="false">$L$32/$N$32</f>
+        <v>0.448319914964705</v>
+      </c>
+      <c r="V29" s="27" t="n">
+        <f aca="false">$M$32/$N$32</f>
+        <v>0.551680085035295</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="L29" s="19" t="n">
-        <f aca="false">-L27*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(F28/$B$7))</f>
-        <v>-3.17293975376014E-011</v>
-      </c>
-      <c r="M29" s="19" t="n">
-        <f aca="false">-M27*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(F28/$B$7))</f>
-        <v>-3.82718672444662E-011</v>
-      </c>
-      <c r="Q29" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="U29" s="26" t="n">
-        <f aca="false">$L$33/$N$33</f>
-        <v>0.448832614748831</v>
-      </c>
-      <c r="V29" s="26" t="n">
-        <f aca="false">$M$33/$N$33</f>
-        <v>0.551167385251169</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="22" t="s">
+      <c r="L30" s="20" t="n">
+        <f aca="false">-L28*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(F29/$B$7)) * F23</f>
+        <v>-3.17140199529903E-011</v>
+      </c>
+      <c r="M30" s="20" t="n">
+        <f aca="false">-M28*B5^2/(12*3.14*B4*F3*B8*(2+1.414)*(F29/$B$7)) * F23</f>
+        <v>-3.82533188659135E-011</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="U30" s="27" t="n">
+        <f aca="false">$L$34/$N$34</f>
+        <v>0.448830265714206</v>
+      </c>
+      <c r="V30" s="27" t="n">
+        <f aca="false">$M$34/$N$34</f>
+        <v>0.551169734285794</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="L30" s="19" t="n">
-        <f aca="false">L27+L28+L29</f>
-        <v>3.1533191076432E-010</v>
-      </c>
-      <c r="M30" s="19" t="n">
-        <f aca="false">M27+M28+M29</f>
-        <v>3.92405808713448E-010</v>
-      </c>
-      <c r="N30" s="19" t="n">
-        <f aca="false">L30+M30</f>
-        <v>7.07737719477768E-010</v>
-      </c>
-      <c r="O30" s="5" t="n">
-        <f aca="false">N30*1000*$B$6/$J$3</f>
-        <v>70.7737719477768</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="L31" s="19" t="n">
-        <f aca="false">L27+F18*(L28+L29)</f>
-        <v>3.49182716005403E-010</v>
-      </c>
-      <c r="M31" s="19" t="n">
-        <f aca="false">M27+F18*(M28+M29)</f>
-        <v>4.29682179399884E-010</v>
-      </c>
-      <c r="N31" s="19" t="n">
+      <c r="L31" s="20" t="n">
+        <f aca="false">L28+L29+L30</f>
+        <v>3.15145660693499E-010</v>
+      </c>
+      <c r="M31" s="20" t="n">
+        <f aca="false">M28+M29+M30</f>
+        <v>3.92181094650931E-010</v>
+      </c>
+      <c r="N31" s="20" t="n">
         <f aca="false">L31+M31</f>
-        <v>7.78864895405287E-010</v>
+        <v>7.0732675534443E-010</v>
       </c>
       <c r="O31" s="5" t="n">
         <f aca="false">N31*1000*$B$6/$J$3</f>
-        <v>77.8864895405287</v>
+        <v>70.732675534443</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="L32" s="19" t="n">
-        <f aca="false">N32*L26/(L26+M26)</f>
-        <v>5.30264176789026E-012</v>
-      </c>
-      <c r="M32" s="19" t="n">
-        <f aca="false">N32*M26/(L26+M26)</f>
-        <v>5.6265778816413E-012</v>
-      </c>
-      <c r="N32" s="19" t="n">
-        <f aca="false">2*F26^2/L10 * F28/F27</f>
-        <v>1.09292196495316E-011</v>
+      <c r="H32" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="20" t="n">
+        <f aca="false">L28+F18*(L29+L30)</f>
+        <v>3.48991690768992E-010</v>
+      </c>
+      <c r="M32" s="20" t="n">
+        <f aca="false">M28+F18*(M29+M30)</f>
+        <v>4.29451735721368E-010</v>
+      </c>
+      <c r="N32" s="20" t="n">
+        <f aca="false">L32+M32</f>
+        <v>7.7844342649036E-010</v>
       </c>
       <c r="O32" s="5" t="n">
         <f aca="false">N32*1000*$B$6/$J$3</f>
-        <v>1.09292196495316</v>
+        <v>77.844342649036</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L33" s="19" t="n">
-        <f aca="false">L31+L32</f>
-        <v>3.54485357773293E-010</v>
-      </c>
-      <c r="M33" s="19" t="n">
-        <f aca="false">M31+M32</f>
-        <v>4.35308757281526E-010</v>
-      </c>
-      <c r="N33" s="19" t="n">
-        <f aca="false">N31+N32</f>
-        <v>7.89794115054819E-010</v>
+      <c r="H33" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" s="20" t="n">
+        <f aca="false">N33*L27/(L27+M27)</f>
+        <v>5.30266816397425E-012</v>
+      </c>
+      <c r="M33" s="20" t="n">
+        <f aca="false">N33*M27/(L27+M27)</f>
+        <v>5.62660589025075E-012</v>
+      </c>
+      <c r="N33" s="20" t="n">
+        <f aca="false">2*F27^2/L10 * F29/F28</f>
+        <v>1.0929274054225E-011</v>
       </c>
       <c r="O33" s="5" t="n">
-        <f aca="false">O31+O32</f>
-        <v>78.9794115054819</v>
+        <f aca="false">N33*1000*$B$6/$J$3</f>
+        <v>1.0929274054225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="L34" s="28" t="n">
-        <f aca="false">L33/L21 - 1</f>
-        <v>-0.0145208930198</v>
-      </c>
-      <c r="M34" s="28" t="n">
-        <f aca="false">M33/M21 - 1</f>
-        <v>0.0435332508512853</v>
-      </c>
-      <c r="N34" s="28" t="n">
-        <f aca="false">N33/N21 - 1</f>
-        <v>0.0166524186732711</v>
-      </c>
-      <c r="O34" s="28" t="n">
-        <f aca="false">O33/O21 - 1</f>
-        <v>0.0166524186732711</v>
+      <c r="H34" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="20" t="n">
+        <f aca="false">L32+L33</f>
+        <v>3.54294358932966E-010</v>
+      </c>
+      <c r="M34" s="20" t="n">
+        <f aca="false">M32+M33</f>
+        <v>4.35078341611619E-010</v>
+      </c>
+      <c r="N34" s="20" t="n">
+        <f aca="false">N32+N33</f>
+        <v>7.89372700544585E-010</v>
+      </c>
+      <c r="O34" s="5" t="n">
+        <f aca="false">O32+O33</f>
+        <v>78.9372700544585</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="s">
+      <c r="H35" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35" s="29" t="n">
+        <f aca="false">L34/L21 - 1</f>
+        <v>-0.0145127712844078</v>
+      </c>
+      <c r="M35" s="29" t="n">
+        <f aca="false">M34/M21 - 1</f>
+        <v>0.043540537338711</v>
+      </c>
+      <c r="N35" s="29" t="n">
+        <f aca="false">N34/N21 - 1</f>
+        <v>0.0166602471356105</v>
+      </c>
+      <c r="O35" s="29" t="n">
+        <f aca="false">O34/O21 - 1</f>
+        <v>0.0166602471356105</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>116</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/exec/immersedIons/Electrolyte_Data.xlsx
+++ b/exec/immersedIons/Electrolyte_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -775,28 +775,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,6 +842,8 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,19 +1022,30 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
       <c r="C9" s="3"/>
+      <c r="D9" s="0"/>
       <c r="E9" s="4"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B10" s="0"/>
       <c r="C10" s="3"/>
+      <c r="D10" s="0"/>
       <c r="E10" s="4"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1111,11 +1137,17 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
       <c r="C14" s="3"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,6 +1171,7 @@
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="0"/>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1284,15 @@
         <v>0.0058</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+    </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
       <c r="G22" s="9" t="s">
         <v>50</v>
       </c>
@@ -1265,6 +1306,9 @@
         <v>6.0221409E+023</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+    </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>52</v>
@@ -1288,7 +1332,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1303,26 +1347,26 @@
   </sheetPr>
   <dimension ref="A2:V50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.53"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2204,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
